--- a/biology/Zoologie/Philip_C._J._Donoghue/Philip_C._J._Donoghue.xlsx
+++ b/biology/Zoologie/Philip_C._J._Donoghue/Philip_C._J._Donoghue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philip Conrad James Donoghue (né en 1971) est un paléontologue britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2001, il a écrit avec W.C. Sweet une revue bibliographique sur les conodontes.
 En 2014, il a écrit avec M. Rücklin une revue bibliographique sur l'évolution des dents chez les vertébrés.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Sweet W.C. &amp; Donoghue P.C.J., 2001. Conodonts: Past, Present, Future. Journal of Paleontology, Vol. 75, No. 6, 75th Anniversary Issue (Nov., 2001), pages 1174-1184 (URL stable sur JSTOR).
 (en) Donoghue P.C.J., Sansom I.J. &amp; Downs J.P., 2006. Early evolution of vertebrate skeletal tissues and cellular interactions, and the canalization of skeletal development. Journal of Experimental Zoology Part B: Molecular and Developmental Evolution, volume 306B, numéro 3, 15 avril 2006, pages 278–294,  (ISSN 1552-5015), DOI 10.1002/jez.b.21090 (|lire en ligne).
